--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
@@ -537,22 +537,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H2">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I2">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J2">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N2">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q2">
-        <v>0.002245373190666667</v>
+        <v>0.2064979800766666</v>
       </c>
       <c r="R2">
-        <v>0.020208358716</v>
+        <v>1.85848182069</v>
       </c>
       <c r="S2">
-        <v>2.928141612636978E-05</v>
+        <v>0.01228558959668689</v>
       </c>
       <c r="T2">
-        <v>2.928141612636977E-05</v>
+        <v>0.01228558959668688</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.021814</v>
+        <v>1.141514</v>
       </c>
       <c r="H3">
-        <v>0.065442</v>
+        <v>3.424542</v>
       </c>
       <c r="I3">
-        <v>0.0003864745254839946</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="J3">
-        <v>0.0003864745254839945</v>
+        <v>0.1286876091642341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N3">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O3">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P3">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q3">
-        <v>0.02203644462933333</v>
+        <v>1.795301303818</v>
       </c>
       <c r="R3">
-        <v>0.198328001664</v>
+        <v>16.157711734362</v>
       </c>
       <c r="S3">
-        <v>0.000287372409993741</v>
+        <v>0.1068113838833482</v>
       </c>
       <c r="T3">
-        <v>0.0002873724099937409</v>
+        <v>0.1068113838833482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.141514</v>
+      </c>
+      <c r="H4">
+        <v>3.424542</v>
+      </c>
+      <c r="I4">
+        <v>0.1286876091642341</v>
+      </c>
+      <c r="J4">
+        <v>0.1286876091642341</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.021814</v>
-      </c>
-      <c r="H4">
-        <v>0.065442</v>
-      </c>
-      <c r="I4">
-        <v>0.0003864745254839946</v>
-      </c>
-      <c r="J4">
-        <v>0.0003864745254839945</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N4">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O4">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P4">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q4">
-        <v>0.00535402816</v>
+        <v>0.1612008020333334</v>
       </c>
       <c r="R4">
-        <v>0.04818625344</v>
+        <v>1.4508072183</v>
       </c>
       <c r="S4">
-        <v>6.982069936388381E-05</v>
+        <v>0.009590635684199047</v>
       </c>
       <c r="T4">
-        <v>6.98206993638838E-05</v>
+        <v>0.009590635684199043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I5">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J5">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N5">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q5">
-        <v>0.1388417224491111</v>
+        <v>0.2440064656005555</v>
       </c>
       <c r="R5">
-        <v>1.249575502042</v>
+        <v>2.196058190405</v>
       </c>
       <c r="S5">
-        <v>0.001810604253953566</v>
+        <v>0.01451715553921418</v>
       </c>
       <c r="T5">
-        <v>0.001810604253953566</v>
+        <v>0.01451715553921418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I6">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J6">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N6">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O6">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P6">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q6">
-        <v>1.362614438307556</v>
+        <v>2.121401505574333</v>
       </c>
       <c r="R6">
-        <v>12.263529944768</v>
+        <v>19.092613550169</v>
       </c>
       <c r="S6">
-        <v>0.01776955410073137</v>
+        <v>0.1262127031828768</v>
       </c>
       <c r="T6">
-        <v>0.01776955410073137</v>
+        <v>0.1262127031828768</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>4.046578999999999</v>
       </c>
       <c r="I7">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="J7">
-        <v>0.02389749241860727</v>
+        <v>0.1520625464088912</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N7">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O7">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P7">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q7">
-        <v>0.3310641165866666</v>
+        <v>0.1904814659277778</v>
       </c>
       <c r="R7">
-        <v>2.97957704928</v>
+        <v>1.71433319335</v>
       </c>
       <c r="S7">
-        <v>0.004317334063922337</v>
+        <v>0.0113326876868003</v>
       </c>
       <c r="T7">
-        <v>0.004317334063922336</v>
+        <v>0.0113326876868003</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H8">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I8">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J8">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N8">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O8">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P8">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q8">
-        <v>1.900407430782</v>
+        <v>0.4407230918955555</v>
       </c>
       <c r="R8">
-        <v>17.103666877038</v>
+        <v>3.96650782706</v>
       </c>
       <c r="S8">
-        <v>0.02478279380090539</v>
+        <v>0.02622080385871791</v>
       </c>
       <c r="T8">
-        <v>0.02478279380090539</v>
+        <v>0.02622080385871791</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H9">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I9">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J9">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N9">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O9">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P9">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q9">
-        <v>18.650896561728</v>
+        <v>3.831663347065334</v>
       </c>
       <c r="R9">
-        <v>167.858069055552</v>
+        <v>34.48497012358801</v>
       </c>
       <c r="S9">
-        <v>0.243222224984208</v>
+        <v>0.2279646674375945</v>
       </c>
       <c r="T9">
-        <v>0.243222224984208</v>
+        <v>0.2279646674375945</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.462627</v>
+        <v>2.436302666666667</v>
       </c>
       <c r="H10">
-        <v>55.38788100000001</v>
+        <v>7.308908000000001</v>
       </c>
       <c r="I10">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="J10">
-        <v>0.3270988818654528</v>
+        <v>0.2746545074118945</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N10">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O10">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P10">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q10">
-        <v>4.53146717088</v>
+        <v>0.3440465415777778</v>
       </c>
       <c r="R10">
-        <v>40.78320453792001</v>
+        <v>3.0964188742</v>
       </c>
       <c r="S10">
-        <v>0.05909386308033943</v>
+        <v>0.02046903611558213</v>
       </c>
       <c r="T10">
-        <v>0.05909386308033942</v>
+        <v>0.02046903611558213</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H11">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I11">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J11">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N11">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O11">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P11">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q11">
-        <v>0.05097500140444445</v>
+        <v>0.0743523505711111</v>
       </c>
       <c r="R11">
-        <v>0.45877501264</v>
+        <v>0.6691711551399999</v>
       </c>
       <c r="S11">
-        <v>0.000664753740879329</v>
+        <v>0.004423590314668051</v>
       </c>
       <c r="T11">
-        <v>0.000664753740879329</v>
+        <v>0.004423590314668051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H12">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I12">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J12">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N12">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O12">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P12">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q12">
-        <v>0.5002766580622223</v>
+        <v>0.6464221677746667</v>
       </c>
       <c r="R12">
-        <v>4.502489922560001</v>
+        <v>5.817799509972001</v>
       </c>
       <c r="S12">
-        <v>0.006523997464617542</v>
+        <v>0.0384588626800694</v>
       </c>
       <c r="T12">
-        <v>0.006523997464617541</v>
+        <v>0.0384588626800694</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.4952266666666667</v>
+        <v>0.4110173333333333</v>
       </c>
       <c r="H13">
-        <v>1.48568</v>
+        <v>1.233052</v>
       </c>
       <c r="I13">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="J13">
-        <v>0.00877383749000735</v>
+        <v>0.04633568922652349</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N13">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O13">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P13">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q13">
-        <v>0.1215484330666667</v>
+        <v>0.05804249775555557</v>
       </c>
       <c r="R13">
-        <v>1.0939358976</v>
+        <v>0.5223824798000001</v>
       </c>
       <c r="S13">
-        <v>0.001585086284510481</v>
+        <v>0.003453236231786031</v>
       </c>
       <c r="T13">
-        <v>0.001585086284510481</v>
+        <v>0.003453236231786031</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H14">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I14">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J14">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N14">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O14">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P14">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q14">
-        <v>0.018376260182</v>
+        <v>0.3991695990394443</v>
       </c>
       <c r="R14">
-        <v>0.165386341638</v>
+        <v>3.592526391354999</v>
       </c>
       <c r="S14">
-        <v>0.0002396407525805637</v>
+        <v>0.02374858035634029</v>
       </c>
       <c r="T14">
-        <v>0.0002396407525805637</v>
+        <v>0.02374858035634029</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H15">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I15">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J15">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N15">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O15">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P15">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q15">
-        <v>0.180347499328</v>
+        <v>3.470395697497667</v>
       </c>
       <c r="R15">
-        <v>1.623127493952</v>
+        <v>31.233561277479</v>
       </c>
       <c r="S15">
-        <v>0.002351871928071541</v>
+        <v>0.2064710621466361</v>
       </c>
       <c r="T15">
-        <v>0.00235187192807154</v>
+        <v>0.2064710621466361</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.178527</v>
+        <v>2.206596333333333</v>
       </c>
       <c r="H16">
-        <v>0.535581</v>
+        <v>6.619789</v>
       </c>
       <c r="I16">
-        <v>0.003162929201938255</v>
+        <v>0.2487587594433638</v>
       </c>
       <c r="J16">
-        <v>0.003162929201938254</v>
+        <v>0.2487587594433639</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N16">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O16">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P16">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q16">
-        <v>0.04381766687999999</v>
+        <v>0.3116081788722223</v>
       </c>
       <c r="R16">
-        <v>0.39435900192</v>
+        <v>2.80447360985</v>
       </c>
       <c r="S16">
-        <v>0.0005714165212861504</v>
+        <v>0.01853911694038745</v>
       </c>
       <c r="T16">
-        <v>0.0005714165212861503</v>
+        <v>0.01853911694038745</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H17">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I17">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J17">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N17">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O17">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P17">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q17">
-        <v>3.699040873615111</v>
+        <v>0.2398959127722222</v>
       </c>
       <c r="R17">
-        <v>33.291367862536</v>
+        <v>2.15906321495</v>
       </c>
       <c r="S17">
-        <v>0.04823837549098711</v>
+        <v>0.0142725983525257</v>
       </c>
       <c r="T17">
-        <v>0.0482383754909871</v>
+        <v>0.0142725983525257</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H18">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I18">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J18">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N18">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O18">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P18">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q18">
-        <v>36.30296724477155</v>
+        <v>2.085664202723334</v>
       </c>
       <c r="R18">
-        <v>326.7267052029439</v>
+        <v>18.77097782451</v>
       </c>
       <c r="S18">
-        <v>0.4734189821695141</v>
+        <v>0.1240865136871883</v>
       </c>
       <c r="T18">
-        <v>0.4734189821695139</v>
+        <v>0.1240865136871883</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.93651066666666</v>
+        <v>1.326136666666667</v>
       </c>
       <c r="H19">
-        <v>107.809532</v>
+        <v>3.97841</v>
       </c>
       <c r="I19">
-        <v>0.6366803844985105</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="J19">
-        <v>0.6366803844985104</v>
+        <v>0.1495008883450928</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N19">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O19">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P19">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q19">
-        <v>8.820257178026665</v>
+        <v>0.1872725996111111</v>
       </c>
       <c r="R19">
-        <v>79.38231460223999</v>
+        <v>1.6854533965</v>
       </c>
       <c r="S19">
-        <v>0.1150230268380094</v>
+        <v>0.01114177630537874</v>
       </c>
       <c r="T19">
-        <v>0.1150230268380094</v>
+        <v>0.01114177630537874</v>
       </c>
     </row>
   </sheetData>
